--- a/Data/Processed/Angiosperms/missing_powo_ipni/Ebenaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Ebenaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 443. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 443. 1910</t>
         </is>
       </c>
       <c r="J40" t="b">
